--- a/SKF_NU 234 ECM.xlsx
+++ b/SKF_NU 234 ECM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="9900" yWindow="90" windowWidth="11070" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Германия</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Scope of application</t>
-  </si>
-  <si>
-    <t>Single row cylindrical roller bearings</t>
   </si>
   <si>
     <t>Цена подшипника (int)</t>
@@ -126,6 +123,15 @@
   <si>
     <t>Эти подшипники являются отличным выбором для применения в условиях, где есть особенно тяжелые радиальные нагрузки в сочетании с высокими скоростями, в особенности если присутствует
 небольшое осевое смещения вала относительно корпуса в результате термического расширения. &lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>Subtype</t>
+  </si>
+  <si>
+    <t>Roller bearings</t>
+  </si>
+  <si>
+    <t>Single row cilindrical</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10"/>
     </row>
@@ -646,127 +652,132 @@
         <v>13</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="C7" s="25" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15">
-        <v>2400</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B8" s="15">
-        <v>3200</v>
-      </c>
-      <c r="C8" s="11"/>
+        <v>2400</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="15">
-        <v>85</v>
+        <v>3200</v>
       </c>
       <c r="C9" s="11"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="15">
-        <v>815</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>10</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C10" s="11"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="15">
+        <v>815</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="15">
         <v>695</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="11" t="s">
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B14" s="17">
         <v>18.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B16" s="18">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -774,7 +785,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="16">
         <v>0</v>
@@ -782,18 +793,18 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
@@ -801,10 +812,10 @@
         <v>3</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">

--- a/SKF_NU 234 ECM.xlsx
+++ b/SKF_NU 234 ECM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Германия</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Manufacturer (Производитель) (String)</t>
   </si>
   <si>
-    <t>Физтех-Энерго</t>
-  </si>
-  <si>
     <t>Гарантийный срок , г.</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t xml:space="preserve">Industrial </t>
   </si>
   <si>
-    <t>Size dxDxh , мм (String)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -20...+150</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
   </si>
   <si>
     <t>Germany</t>
-  </si>
-  <si>
-    <t>170x310x52</t>
   </si>
   <si>
     <t>SKF_NU 234 ECM_1.jpg</t>
@@ -132,6 +123,24 @@
   </si>
   <si>
     <t>Single row cilindrical</t>
+  </si>
+  <si>
+    <t>d - диаметр внутренний (int)</t>
+  </si>
+  <si>
+    <t>D - Диаметр внешний (int)</t>
+  </si>
+  <si>
+    <t>h - ширина подшипника (int)</t>
+  </si>
+  <si>
+    <t>Промышленный</t>
+  </si>
+  <si>
+    <t>Шарикоподшипник</t>
+  </si>
+  <si>
+    <t>Однорядный цилиндрический</t>
   </si>
 </sst>
 </file>
@@ -175,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +233,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -253,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -312,6 +327,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -614,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>4</v>
@@ -640,37 +658,43 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="10"/>
     </row>
@@ -679,10 +703,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -690,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>0</v>
@@ -698,18 +722,18 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="15">
         <v>2400</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="15">
         <v>3200</v>
@@ -718,7 +742,7 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="15">
         <v>85</v>
@@ -727,18 +751,18 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="15">
         <v>815</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="15">
         <v>695</v>
@@ -746,93 +770,106 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="B13" s="22">
+        <v>170</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="17">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="22">
+        <v>310</v>
+      </c>
+      <c r="C14" s="11"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="22">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="17">
         <v>18.2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B17" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="18"/>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="16">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16">
         <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B20" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C22" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="21"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="21"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="11"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="26"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SKF_NU 234 ECM.xlsx
+++ b/SKF_NU 234 ECM.xlsx
@@ -90,9 +90,6 @@
     <t xml:space="preserve"> -20...+150</t>
   </si>
   <si>
-    <t>NU 234 ECM </t>
-  </si>
-  <si>
     <t>Germany</t>
   </si>
   <si>
@@ -122,18 +119,12 @@
     <t>Roller bearings</t>
   </si>
   <si>
-    <t>Single row cilindrical</t>
-  </si>
-  <si>
     <t>d - диаметр внутренний (int)</t>
   </si>
   <si>
     <t>D - Диаметр внешний (int)</t>
   </si>
   <si>
-    <t>h - ширина подшипника (int)</t>
-  </si>
-  <si>
     <t>Промышленный</t>
   </si>
   <si>
@@ -141,6 +132,15 @@
   </si>
   <si>
     <t>Однорядный цилиндрический</t>
+  </si>
+  <si>
+    <t>B - ширина подшипника (int)</t>
+  </si>
+  <si>
+    <t>NU 234 ECM</t>
+  </si>
+  <si>
+    <t>Single row cilindrical roller bearings</t>
   </si>
 </sst>
 </file>
@@ -635,7 +635,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -672,21 +672,21 @@
         <v>12</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10"/>
     </row>
@@ -714,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>0</v>
@@ -770,7 +770,7 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B13" s="22">
         <v>170</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B14" s="22">
         <v>310</v>
@@ -790,7 +790,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="22">
         <v>52</v>
@@ -830,18 +830,18 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="110.25" x14ac:dyDescent="0.25">
@@ -849,10 +849,10 @@
         <v>3</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
